--- a/DataDrivenFramework/excel/TestData.xlsx
+++ b/DataDrivenFramework/excel/TestData.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3765"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I10"/>
 </workbook>
 </file>
 
@@ -84,6 +85,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -131,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
